--- a/flows/EMLP_fund_flow_data.xlsx
+++ b/flows/EMLP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2938"/>
+  <dimension ref="A1:B2954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29815,6 +29815,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2942" t="n">
+        <v>-11.1152</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2953" t="n">
+        <v>-7.20425</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2954" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
